--- a/public/template/excel/format_laporan_anev_harian.xlsx
+++ b/public/template/excel/format_laporan_anev_harian.xlsx
@@ -539,9 +539,6 @@
     <t>g. Materiil</t>
   </si>
   <si>
-    <t>TAHUN</t>
-  </si>
-  <si>
     <t>BARANGBUKTI YANG DISITA</t>
   </si>
   <si>
@@ -966,6 +963,9 @@
   </si>
   <si>
     <t>TANGGAL 18 NOVEMBER 2021</t>
+  </si>
+  <si>
+    <t>HARI</t>
   </si>
 </sst>
 </file>
@@ -1522,27 +1522,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1563,6 +1542,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I431" sqref="I431"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1888,10 +1888,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
-        <v>296</v>
-      </c>
-      <c r="B1" s="79"/>
+      <c r="A1" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="86"/>
       <c r="C1" s="77"/>
       <c r="D1" s="77"/>
       <c r="E1" s="77"/>
@@ -1899,10 +1899,10 @@
       <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" s="79"/>
+      <c r="A2" s="86" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="86"/>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
@@ -1910,10 +1910,10 @@
       <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="79"/>
+      <c r="A3" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="86"/>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
       <c r="E3" s="77"/>
@@ -1939,68 +1939,68 @@
       <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="82" t="s">
         <v>300</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="89" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91" t="s">
+      <c r="D10" s="83"/>
+      <c r="E10" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="88" t="s">
+      <c r="F10" s="85"/>
+      <c r="G10" s="81" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
       <c r="E11" s="8" t="s">
@@ -2009,7 +2009,7 @@
       <c r="F11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="88"/>
+      <c r="G11" s="81"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -2036,7 +2036,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>6</v>
@@ -2067,7 +2067,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C15" s="38">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>8</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C56" s="38">
         <f>SUM(C39:C55)</f>
@@ -3081,7 +3081,7 @@
         <v>8</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C59" s="38">
         <f>SUM(C58)</f>
@@ -3108,7 +3108,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="50"/>
@@ -3119,7 +3119,7 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C61" s="38">
         <v>0</v>
@@ -3142,7 +3142,7 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62" s="38">
         <v>0</v>
@@ -3165,7 +3165,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C63" s="38">
         <v>0</v>
@@ -3188,7 +3188,7 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="38">
         <f>SUM(C61:C63)</f>
@@ -3353,7 +3353,7 @@
         <v>8</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C71" s="38">
         <f>SUM(C66:C70)</f>
@@ -3380,7 +3380,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="50"/>
@@ -3568,7 +3568,7 @@
         <v>8</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C80" s="38">
         <f>SUM(C73:C79)</f>
@@ -3871,7 +3871,7 @@
         <v>8</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C93" s="38">
         <f>SUM(C82:C92)</f>
@@ -4159,7 +4159,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C105" s="38">
         <f>SUM(C95:C104)</f>
@@ -4323,7 +4323,7 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C113" s="38">
         <f ca="1">SUM(C108:C113)</f>
@@ -4451,7 +4451,7 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C119" s="38">
         <f>SUM(C115:C118)</f>
@@ -4579,7 +4579,7 @@
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C125" s="38">
         <f>SUM(C121:C124)</f>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>91</v>
@@ -4749,7 +4749,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G132" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4757,7 +4757,7 @@
         <v>10</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="50"/>
@@ -4768,7 +4768,7 @@
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C134" s="38">
         <v>0</v>
@@ -4791,7 +4791,7 @@
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C135" s="38">
         <v>0</v>
@@ -4814,7 +4814,7 @@
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C136" s="38">
         <v>0</v>
@@ -4837,7 +4837,7 @@
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C137" s="38">
         <f>SUM(C134:C136)</f>
@@ -4864,7 +4864,7 @@
         <v>11</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C138" s="39"/>
       <c r="D138" s="50"/>
@@ -5052,7 +5052,7 @@
         <v>8</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C146" s="38">
         <f>SUM(C139:C145)</f>
@@ -5079,7 +5079,7 @@
         <v>12</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C147" s="39"/>
       <c r="D147" s="50"/>
@@ -5355,7 +5355,7 @@
         <v>8</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C159" s="38">
         <f>SUM(C148:C158)</f>
@@ -5382,7 +5382,7 @@
         <v>13</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C160" s="39"/>
       <c r="D160" s="50"/>
@@ -5641,7 +5641,7 @@
         <v>8</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C171" s="38">
         <f>SUM(C161:C170)</f>
@@ -5831,7 +5831,7 @@
         <v>8</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C179" s="38">
         <f>SUM(C173:C178)</f>
@@ -6117,7 +6117,7 @@
         <v>8</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C191" s="38">
         <f>SUM(C181:C190)</f>
@@ -6144,7 +6144,7 @@
         <v>16</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="50"/>
@@ -6332,7 +6332,7 @@
         <v>8</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C200" s="38">
         <f>SUM(C193:C199)</f>
@@ -6633,7 +6633,7 @@
         <v>8</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C213" s="38">
         <f>SUM(C202:C212)</f>
@@ -6919,7 +6919,7 @@
         <v>8</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C225" s="38">
         <f>SUM(C215:C224)</f>
@@ -7095,7 +7095,7 @@
         <v>8</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C233" s="38">
         <v>0</v>
@@ -7120,7 +7120,7 @@
         <v>8</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C234" s="38">
         <f>SUM(C228:C233)</f>
@@ -7260,7 +7260,7 @@
         <v>8</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C240" s="38">
         <f>SUM(C236:C239)</f>
@@ -7400,7 +7400,7 @@
         <v>8</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C246" s="38">
         <f>SUM(C242:C245)</f>
@@ -7666,7 +7666,7 @@
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
       <c r="B258" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C258" s="38">
         <v>0</v>
@@ -7919,7 +7919,7 @@
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="12"/>
       <c r="B269" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C269" s="38">
         <f>SUM(C248:C268)</f>
@@ -8157,7 +8157,7 @@
         <v>8</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C279" s="38">
         <f>SUM(C271:C278)</f>
@@ -8335,7 +8335,7 @@
         <v>8</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C287" s="38">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>24</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C292" s="10"/>
       <c r="D292" s="50"/>
@@ -8586,7 +8586,7 @@
         <v>25</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C298" s="10"/>
       <c r="D298" s="50"/>
@@ -8724,7 +8724,7 @@
         <v>26</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C304" s="39"/>
       <c r="D304" s="50"/>
@@ -8852,7 +8852,7 @@
         <v>27</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C310" s="39"/>
       <c r="D310" s="50"/>
@@ -8980,7 +8980,7 @@
         <v>28</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C316" s="39"/>
       <c r="D316" s="50"/>
@@ -9296,7 +9296,7 @@
         <v>30</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C330" s="38">
         <v>0</v>
@@ -9311,7 +9311,7 @@
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="12"/>
       <c r="B331" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C331" s="38">
         <v>0</v>
@@ -9334,7 +9334,7 @@
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="12"/>
       <c r="B332" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C332" s="38">
         <v>0</v>
@@ -9357,7 +9357,7 @@
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="12"/>
       <c r="B333" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C333" s="38">
         <v>0</v>
@@ -9404,10 +9404,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B335" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="B335" s="11" t="s">
-        <v>264</v>
       </c>
       <c r="C335" s="40"/>
       <c r="D335" s="50"/>
@@ -9420,7 +9420,7 @@
         <v>31</v>
       </c>
       <c r="B336" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C336" s="41"/>
       <c r="D336" s="50"/>
@@ -9431,7 +9431,7 @@
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="12"/>
       <c r="B337" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C337" s="42"/>
       <c r="D337" s="50"/>
@@ -9442,7 +9442,7 @@
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="12"/>
       <c r="B338" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C338" s="38">
         <v>0</v>
@@ -9465,7 +9465,7 @@
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="12"/>
       <c r="B339" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C339" s="38">
         <v>0</v>
@@ -9488,7 +9488,7 @@
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="12"/>
       <c r="B340" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C340" s="38">
         <v>0</v>
@@ -9511,7 +9511,7 @@
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="12"/>
       <c r="B341" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C341" s="38">
         <v>0</v>
@@ -9534,7 +9534,7 @@
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
       <c r="B342" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C342" s="38">
         <v>0</v>
@@ -9557,7 +9557,7 @@
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="12"/>
       <c r="B343" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C343" s="38">
         <v>0</v>
@@ -9580,7 +9580,7 @@
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="12"/>
       <c r="B344" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C344" s="38">
         <f>SUM(C338:C343)</f>
@@ -9605,7 +9605,7 @@
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="12"/>
       <c r="B345" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C345" s="42"/>
       <c r="D345" s="50"/>
@@ -9616,7 +9616,7 @@
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="12"/>
       <c r="B346" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C346" s="38">
         <v>0</v>
@@ -9639,7 +9639,7 @@
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="12"/>
       <c r="B347" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C347" s="38">
         <v>0</v>
@@ -9662,7 +9662,7 @@
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="12"/>
       <c r="B348" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C348" s="38">
         <v>0</v>
@@ -9685,7 +9685,7 @@
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="12"/>
       <c r="B349" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C349" s="38">
         <v>0</v>
@@ -9708,7 +9708,7 @@
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="12"/>
       <c r="B350" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C350" s="38">
         <f>SUM(C346:C349)</f>
@@ -9733,7 +9733,7 @@
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="12"/>
       <c r="B351" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C351" s="43"/>
       <c r="D351" s="50"/>
@@ -9744,7 +9744,7 @@
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="12"/>
       <c r="B352" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C352" s="38">
         <v>0</v>
@@ -9767,7 +9767,7 @@
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="12"/>
       <c r="B353" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C353" s="38">
         <v>0</v>
@@ -9790,7 +9790,7 @@
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="12"/>
       <c r="B354" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C354" s="38">
         <v>0</v>
@@ -9813,7 +9813,7 @@
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="12"/>
       <c r="B355" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C355" s="38">
         <v>0</v>
@@ -9861,7 +9861,7 @@
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="12"/>
       <c r="B357" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C357" s="42"/>
       <c r="D357" s="50"/>
@@ -9872,7 +9872,7 @@
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="12"/>
       <c r="B358" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C358" s="38">
         <v>0</v>
@@ -9895,7 +9895,7 @@
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="12"/>
       <c r="B359" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C359" s="38">
         <v>0</v>
@@ -9918,7 +9918,7 @@
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="17"/>
       <c r="B360" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C360" s="38">
         <v>0</v>
@@ -9941,7 +9941,7 @@
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="12"/>
       <c r="B361" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C361" s="38">
         <v>0</v>
@@ -9964,7 +9964,7 @@
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="12"/>
       <c r="B362" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C362" s="38">
         <v>0</v>
@@ -9987,7 +9987,7 @@
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="12"/>
       <c r="B363" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C363" s="38">
         <v>0</v>
@@ -10010,7 +10010,7 @@
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="12"/>
       <c r="B364" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C364" s="38">
         <v>0</v>
@@ -10057,10 +10057,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B366" s="22" t="s">
         <v>228</v>
-      </c>
-      <c r="B366" s="22" t="s">
-        <v>229</v>
       </c>
       <c r="C366" s="41"/>
       <c r="D366" s="50"/>
@@ -10073,7 +10073,7 @@
         <v>32</v>
       </c>
       <c r="B367" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C367" s="41"/>
       <c r="D367" s="38"/>
@@ -10084,7 +10084,7 @@
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="25"/>
       <c r="B368" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C368" s="38">
         <v>0</v>
@@ -10107,7 +10107,7 @@
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="25"/>
       <c r="B369" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C369" s="38">
         <v>0</v>
@@ -10130,7 +10130,7 @@
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="25"/>
       <c r="B370" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C370" s="38">
         <v>0</v>
@@ -10153,7 +10153,7 @@
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="25"/>
       <c r="B371" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C371" s="38">
         <v>0</v>
@@ -10200,10 +10200,10 @@
     </row>
     <row r="373" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B373" s="27" t="s">
         <v>260</v>
-      </c>
-      <c r="B373" s="27" t="s">
-        <v>261</v>
       </c>
       <c r="C373" s="44"/>
       <c r="D373" s="50"/>
@@ -10216,7 +10216,7 @@
         <v>33</v>
       </c>
       <c r="B374" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C374" s="45"/>
       <c r="D374" s="50"/>
@@ -10226,10 +10226,10 @@
     </row>
     <row r="375" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B375" s="31" t="s">
         <v>234</v>
-      </c>
-      <c r="B375" s="31" t="s">
-        <v>235</v>
       </c>
       <c r="C375" s="46"/>
       <c r="D375" s="50"/>
@@ -10240,7 +10240,7 @@
     <row r="376" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="30"/>
       <c r="B376" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C376" s="38">
         <v>0</v>
@@ -10263,7 +10263,7 @@
     <row r="377" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="30"/>
       <c r="B377" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C377" s="38">
         <v>0</v>
@@ -10286,7 +10286,7 @@
     <row r="378" spans="1:7" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="30"/>
       <c r="B378" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C378" s="38">
         <v>0</v>
@@ -10309,7 +10309,7 @@
     <row r="379" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="30"/>
       <c r="B379" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C379" s="38">
         <v>0</v>
@@ -10332,7 +10332,7 @@
     <row r="380" spans="1:7" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="30"/>
       <c r="B380" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C380" s="38">
         <v>0</v>
@@ -10349,13 +10349,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G380" s="60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="381" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="30"/>
       <c r="B381" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C381" s="38">
         <v>0</v>
@@ -10378,7 +10378,7 @@
     <row r="382" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="30"/>
       <c r="B382" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C382" s="38">
         <v>0</v>
@@ -10401,7 +10401,7 @@
     <row r="383" spans="1:7" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="30"/>
       <c r="B383" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C383" s="38">
         <v>0</v>
@@ -10424,7 +10424,7 @@
     <row r="384" spans="1:7" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="30"/>
       <c r="B384" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C384" s="38">
         <v>0</v>
@@ -10446,10 +10446,10 @@
     </row>
     <row r="385" spans="1:7" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B385" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C385" s="47"/>
       <c r="D385" s="50"/>
@@ -10460,7 +10460,7 @@
     <row r="386" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="30"/>
       <c r="B386" s="31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C386" s="38">
         <v>0</v>
@@ -10477,13 +10477,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G386" s="60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="387" spans="1:7" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="30"/>
       <c r="B387" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C387" s="38">
         <v>0</v>
@@ -10506,7 +10506,7 @@
     <row r="388" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="30"/>
       <c r="B388" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C388" s="38">
         <v>0</v>
@@ -10528,10 +10528,10 @@
     </row>
     <row r="389" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B389" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C389" s="47"/>
       <c r="D389" s="38"/>
@@ -10542,7 +10542,7 @@
     <row r="390" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="30"/>
       <c r="B390" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C390" s="38">
         <v>0</v>
@@ -10565,7 +10565,7 @@
     <row r="391" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="30"/>
       <c r="B391" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C391" s="38">
         <v>0</v>
@@ -10588,7 +10588,7 @@
     <row r="392" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="30"/>
       <c r="B392" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C392" s="38">
         <v>0</v>
@@ -10611,7 +10611,7 @@
     <row r="393" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="30"/>
       <c r="B393" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C393" s="38">
         <v>0</v>
@@ -10634,7 +10634,7 @@
     <row r="394" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="30"/>
       <c r="B394" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C394" s="38">
         <v>0</v>
@@ -10657,7 +10657,7 @@
     <row r="395" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="30"/>
       <c r="B395" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C395" s="38">
         <v>0</v>
@@ -10680,7 +10680,7 @@
     <row r="396" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="30"/>
       <c r="B396" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C396" s="38">
         <v>0</v>
@@ -10703,7 +10703,7 @@
     <row r="397" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="30"/>
       <c r="B397" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C397" s="38">
         <v>0</v>
@@ -10726,7 +10726,7 @@
     <row r="398" spans="1:7" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="30"/>
       <c r="B398" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C398" s="38">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G398" s="63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="399" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="30"/>
       <c r="B399" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C399" s="38">
         <v>0</v>
@@ -10772,7 +10772,7 @@
     <row r="400" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="30"/>
       <c r="B400" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C400" s="38">
         <v>0</v>
@@ -10795,7 +10795,7 @@
     <row r="401" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="30"/>
       <c r="B401" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C401" s="38">
         <v>0</v>
@@ -10818,7 +10818,7 @@
     <row r="402" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="30"/>
       <c r="B402" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C402" s="38">
         <v>0</v>
@@ -10840,10 +10840,10 @@
     </row>
     <row r="403" spans="1:7" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B403" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C403" s="47"/>
       <c r="D403" s="50"/>
@@ -10854,7 +10854,7 @@
     <row r="404" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="30"/>
       <c r="B404" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C404" s="38">
         <v>0</v>
@@ -10877,7 +10877,7 @@
     <row r="405" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="30"/>
       <c r="B405" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C405" s="38">
         <v>0</v>
@@ -10900,7 +10900,7 @@
     <row r="406" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="30"/>
       <c r="B406" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C406" s="38">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G406" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="407" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="30"/>
       <c r="B407" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C407" s="38">
         <v>0</v>
@@ -10946,7 +10946,7 @@
     <row r="408" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="30"/>
       <c r="B408" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C408" s="38">
         <v>0</v>
@@ -10968,10 +10968,10 @@
     </row>
     <row r="409" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B409" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C409" s="44"/>
       <c r="D409" s="50"/>
@@ -10984,7 +10984,7 @@
         <v>34</v>
       </c>
       <c r="B410" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C410" s="45"/>
       <c r="D410" s="50"/>
@@ -10995,7 +10995,7 @@
     <row r="411" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A411" s="30"/>
       <c r="B411" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C411" s="38">
         <v>0</v>
@@ -11018,7 +11018,7 @@
     <row r="412" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A412" s="30"/>
       <c r="B412" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C412" s="38">
         <v>0</v>
@@ -11041,7 +11041,7 @@
     <row r="413" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A413" s="30"/>
       <c r="B413" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C413" s="38">
         <v>0</v>
@@ -11064,7 +11064,7 @@
     <row r="414" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A414" s="30"/>
       <c r="B414" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C414" s="38">
         <v>0</v>
@@ -11111,10 +11111,10 @@
     </row>
     <row r="416" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="B416" s="23" t="s">
         <v>289</v>
-      </c>
-      <c r="B416" s="23" t="s">
-        <v>290</v>
       </c>
       <c r="C416" s="70"/>
       <c r="D416" s="51"/>
@@ -11125,7 +11125,7 @@
     <row r="417" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="35"/>
       <c r="B417" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C417" s="70">
         <v>0</v>
@@ -11264,10 +11264,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B423" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C423" s="70"/>
       <c r="D423" s="51"/>
@@ -11278,7 +11278,7 @@
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="35"/>
       <c r="B424" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C424" s="70">
         <v>0</v>
@@ -11301,7 +11301,7 @@
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="35"/>
       <c r="B425" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C425" s="70">
         <v>0</v>
@@ -11350,19 +11350,19 @@
       <c r="A428" s="73"/>
       <c r="B428" s="73"/>
       <c r="C428" s="74"/>
-      <c r="D428" s="80"/>
-      <c r="E428" s="80"/>
-      <c r="F428" s="80"/>
-      <c r="G428" s="80"/>
+      <c r="D428" s="89"/>
+      <c r="E428" s="89"/>
+      <c r="F428" s="89"/>
+      <c r="G428" s="89"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="73"/>
       <c r="B429" s="73"/>
       <c r="C429" s="74"/>
-      <c r="D429" s="81"/>
-      <c r="E429" s="81"/>
-      <c r="F429" s="81"/>
-      <c r="G429" s="81"/>
+      <c r="D429" s="90"/>
+      <c r="E429" s="90"/>
+      <c r="F429" s="90"/>
+      <c r="G429" s="90"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="73"/>
@@ -11395,26 +11395,36 @@
       <c r="A433" s="73"/>
       <c r="B433" s="73"/>
       <c r="C433" s="75"/>
-      <c r="D433" s="82"/>
-      <c r="E433" s="82"/>
-      <c r="F433" s="82"/>
-      <c r="G433" s="82"/>
+      <c r="D433" s="91"/>
+      <c r="E433" s="91"/>
+      <c r="F433" s="91"/>
+      <c r="G433" s="91"/>
     </row>
     <row r="434" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A434" s="73"/>
       <c r="B434" s="73"/>
       <c r="C434" s="75"/>
-      <c r="D434" s="83"/>
-      <c r="E434" s="83"/>
-      <c r="F434" s="83"/>
-      <c r="G434" s="83"/>
+      <c r="D434" s="92"/>
+      <c r="E434" s="92"/>
+      <c r="F434" s="92"/>
+      <c r="G434" s="92"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E435" s="86"/>
-      <c r="F435" s="86"/>
+      <c r="E435" s="79"/>
+      <c r="F435" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="D428:G428"/>
+    <mergeCell ref="D429:G429"/>
+    <mergeCell ref="D433:G433"/>
+    <mergeCell ref="D434:G434"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
     <mergeCell ref="E435:F435"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:A11"/>
@@ -11422,16 +11432,6 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="D428:G428"/>
-    <mergeCell ref="D429:G429"/>
-    <mergeCell ref="D433:G433"/>
-    <mergeCell ref="D434:G434"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/format_laporan_anev_harian.xlsx
+++ b/public/template/excel/format_laporan_anev_harian.xlsx
@@ -975,7 +975,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,14 +1064,7 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1522,6 +1515,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1543,25 +1551,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1872,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A411" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D434" sqref="D434:G434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1888,10 +1881,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="79" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="77"/>
       <c r="D1" s="77"/>
       <c r="E1" s="77"/>
@@ -1899,10 +1892,10 @@
       <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="79" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
@@ -1910,10 +1903,10 @@
       <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="79" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
       <c r="E3" s="77"/>
@@ -1939,68 +1932,68 @@
       <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="82" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="83" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="81" t="s">
+      <c r="A10" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84" t="s">
+      <c r="D10" s="88"/>
+      <c r="E10" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="81" t="s">
+      <c r="F10" s="90"/>
+      <c r="G10" s="86" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
       <c r="E11" s="8" t="s">
@@ -2009,7 +2002,7 @@
       <c r="F11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="81"/>
+      <c r="G11" s="86"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -11350,19 +11343,19 @@
       <c r="A428" s="73"/>
       <c r="B428" s="73"/>
       <c r="C428" s="74"/>
-      <c r="D428" s="89"/>
-      <c r="E428" s="89"/>
-      <c r="F428" s="89"/>
-      <c r="G428" s="89"/>
+      <c r="D428" s="80"/>
+      <c r="E428" s="80"/>
+      <c r="F428" s="80"/>
+      <c r="G428" s="80"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="73"/>
       <c r="B429" s="73"/>
       <c r="C429" s="74"/>
-      <c r="D429" s="90"/>
-      <c r="E429" s="90"/>
-      <c r="F429" s="90"/>
-      <c r="G429" s="90"/>
+      <c r="D429" s="81"/>
+      <c r="E429" s="81"/>
+      <c r="F429" s="81"/>
+      <c r="G429" s="81"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="73"/>
@@ -11391,7 +11384,7 @@
       <c r="F432" s="75"/>
       <c r="G432" s="75"/>
     </row>
-    <row r="433" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="73"/>
       <c r="B433" s="73"/>
       <c r="C433" s="75"/>
@@ -11400,7 +11393,7 @@
       <c r="F433" s="91"/>
       <c r="G433" s="91"/>
     </row>
-    <row r="434" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="73"/>
       <c r="B434" s="73"/>
       <c r="C434" s="75"/>
@@ -11410,21 +11403,11 @@
       <c r="G434" s="92"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E435" s="79"/>
-      <c r="F435" s="79"/>
+      <c r="E435" s="84"/>
+      <c r="F435" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="D428:G428"/>
-    <mergeCell ref="D429:G429"/>
-    <mergeCell ref="D433:G433"/>
-    <mergeCell ref="D434:G434"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
     <mergeCell ref="E435:F435"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:A11"/>
@@ -11432,6 +11415,16 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="D428:G428"/>
+    <mergeCell ref="D429:G429"/>
+    <mergeCell ref="D433:G433"/>
+    <mergeCell ref="D434:G434"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
